--- a/output/Transitions Rule/summary_tables/transition_rule_summary_tables_Linde-Decatur.xlsx
+++ b/output/Transitions Rule/summary_tables/transition_rule_summary_tables_Linde-Decatur.xlsx
@@ -599,22 +599,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
         <v>34</v>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E9" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -622,10 +622,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="C10" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="D10" t="n">
         <v>0.57</v>
@@ -634,10 +634,10 @@
         <v>0.5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="G10" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -843,22 +843,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>8.3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F9" t="n">
-        <v>5.6</v>
+        <v>8.3</v>
       </c>
       <c r="G9" t="n">
-        <v>6.5</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07</v>
+        <v>0.065</v>
       </c>
       <c r="D10" t="n">
         <v>0.13</v>
@@ -878,10 +878,10 @@
         <v>0.08</v>
       </c>
       <c r="F10" t="n">
-        <v>0.062</v>
+        <v>0.072</v>
       </c>
       <c r="G10" t="n">
-        <v>0.066</v>
+        <v>0.068</v>
       </c>
     </row>
   </sheetData>
